--- a/biology/Zoologie/Cephalotes_klugi/Cephalotes_klugi.xlsx
+++ b/biology/Zoologie/Cephalotes_klugi/Cephalotes_klugi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes klugi est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes klugi est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C. klugi est trouvée dans une géographie spécifique d'Amérique du sud, de la région brésilienne du Mato Grosso[3].
-La famille des Myrmicinae, dont font partie les Cephalotes, représentent 48% des espèces de fourmis dans le monde pour environ 53% des individus[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. klugi est trouvée dans une géographie spécifique d'Amérique du sud, de la région brésilienne du Mato Grosso.
+La famille des Myrmicinae, dont font partie les Cephalotes, représentent 48% des espèces de fourmis dans le monde pour environ 53% des individus. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalotes klugi fut décrite et classifiée pour la première fois par l'entomologiste italien Carlo Emery en 1894.
-Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[5]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[6].
+Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Diversity and Adaptation in the Ant Genus Cephalotes Past and Present (Hymenoptera, Formicidae)
 </t>
